--- a/MEDIA/3013_拉亞直營營業額(2020-01-01~2020-01-31).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-01-01~2020-01-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,38 +510,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35980</v>
+        <v>30314</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3" t="n">
-        <v>13990</v>
+        <v>12309</v>
       </c>
       <c r="G3" t="n">
-        <v>38.9</v>
+        <v>40.6</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>9085</v>
+        <v>5435</v>
       </c>
       <c r="J3" t="n">
-        <v>25.3</v>
+        <v>17.9</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>8975</v>
+        <v>1495</v>
       </c>
       <c r="M3" t="n">
-        <v>24.9</v>
+        <v>4.9</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R3" t="n">
-        <v>3930</v>
+        <v>2315</v>
       </c>
       <c r="S3" t="n">
-        <v>10.9</v>
+        <v>7.6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>8760</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AA3" t="n">
-        <v>275</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -599,38 +599,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25715</v>
+        <v>13113</v>
       </c>
       <c r="E4" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F4" t="n">
-        <v>9292</v>
+        <v>5378</v>
       </c>
       <c r="G4" t="n">
-        <v>36.1</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>6045</v>
+        <v>3255</v>
       </c>
       <c r="J4" t="n">
-        <v>23.5</v>
+        <v>24.8</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>4878</v>
+        <v>1630</v>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>12.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>2480</v>
+        <v>535</v>
       </c>
       <c r="S4" t="n">
-        <v>9.6</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U4" t="n">
-        <v>3020</v>
+        <v>2315</v>
       </c>
       <c r="V4" t="n">
-        <v>11.7</v>
+        <v>17.7</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="AA4" t="n">
-        <v>204</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22145</v>
+        <v>17007</v>
       </c>
       <c r="E5" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F5" t="n">
-        <v>10135</v>
+        <v>5819</v>
       </c>
       <c r="G5" t="n">
-        <v>45.8</v>
+        <v>34.2</v>
       </c>
       <c r="H5" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I5" t="n">
-        <v>5655</v>
+        <v>4033</v>
       </c>
       <c r="J5" t="n">
-        <v>25.5</v>
+        <v>23.7</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>2875</v>
+        <v>2250</v>
       </c>
       <c r="M5" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
-        <v>1585</v>
+        <v>1150</v>
       </c>
       <c r="S5" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="U5" t="n">
-        <v>1895</v>
+        <v>3755</v>
       </c>
       <c r="V5" t="n">
-        <v>8.6</v>
+        <v>22.1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="AA5" t="n">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -777,38 +777,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33320</v>
+        <v>24125</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F6" t="n">
-        <v>13475</v>
+        <v>10560</v>
       </c>
       <c r="G6" t="n">
-        <v>40.4</v>
+        <v>43.8</v>
       </c>
       <c r="H6" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I6" t="n">
-        <v>9605</v>
+        <v>5575</v>
       </c>
       <c r="J6" t="n">
-        <v>28.8</v>
+        <v>23.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>3100</v>
+        <v>1865</v>
       </c>
       <c r="M6" t="n">
-        <v>9.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>3745</v>
+        <v>1020</v>
       </c>
       <c r="S6" t="n">
-        <v>11.2</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="U6" t="n">
-        <v>3395</v>
+        <v>5105</v>
       </c>
       <c r="V6" t="n">
-        <v>10.2</v>
+        <v>21.2</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AA6" t="n">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -866,38 +866,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35230</v>
+        <v>33259</v>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F7" t="n">
-        <v>18275</v>
+        <v>11769</v>
       </c>
       <c r="G7" t="n">
-        <v>51.9</v>
+        <v>35.4</v>
       </c>
       <c r="H7" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I7" t="n">
-        <v>8490</v>
+        <v>7830</v>
       </c>
       <c r="J7" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>3825</v>
+        <v>1775</v>
       </c>
       <c r="M7" t="n">
-        <v>10.9</v>
+        <v>5.3</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>2425</v>
+        <v>1895</v>
       </c>
       <c r="S7" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="U7" t="n">
-        <v>2215</v>
+        <v>9990</v>
       </c>
       <c r="V7" t="n">
-        <v>6.3</v>
+        <v>30</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AA7" t="n">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25765</v>
+        <v>17516</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F8" t="n">
-        <v>11362</v>
+        <v>7850</v>
       </c>
       <c r="G8" t="n">
-        <v>44.1</v>
+        <v>44.8</v>
       </c>
       <c r="H8" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>6850</v>
+        <v>3220</v>
       </c>
       <c r="J8" t="n">
-        <v>26.6</v>
+        <v>18.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>3988</v>
+        <v>2196</v>
       </c>
       <c r="M8" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>960</v>
+        <v>1295</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U8" t="n">
-        <v>2605</v>
+        <v>2955</v>
       </c>
       <c r="V8" t="n">
-        <v>10.1</v>
+        <v>16.9</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AA8" t="n">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
@@ -1044,38 +1044,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23440</v>
+        <v>15180</v>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F9" t="n">
-        <v>9850</v>
+        <v>4740</v>
       </c>
       <c r="G9" t="n">
-        <v>42</v>
+        <v>31.2</v>
       </c>
       <c r="H9" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>5190</v>
+        <v>4345</v>
       </c>
       <c r="J9" t="n">
-        <v>22.1</v>
+        <v>28.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>5085</v>
+        <v>1540</v>
       </c>
       <c r="M9" t="n">
-        <v>21.7</v>
+        <v>10.1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>555</v>
+        <v>960</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U9" t="n">
-        <v>2760</v>
+        <v>3595</v>
       </c>
       <c r="V9" t="n">
-        <v>11.8</v>
+        <v>23.7</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AA9" t="n">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1133,38 +1133,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25675</v>
+        <v>17267</v>
       </c>
       <c r="E10" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F10" t="n">
-        <v>11075</v>
+        <v>4805</v>
       </c>
       <c r="G10" t="n">
-        <v>43.1</v>
+        <v>27.8</v>
       </c>
       <c r="H10" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I10" t="n">
-        <v>5130</v>
+        <v>5567</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>32.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>4120</v>
+        <v>1030</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R10" t="n">
-        <v>1395</v>
+        <v>1920</v>
       </c>
       <c r="S10" t="n">
-        <v>5.4</v>
+        <v>11.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U10" t="n">
-        <v>3955</v>
+        <v>3945</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4</v>
+        <v>22.8</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA10" t="n">
-        <v>177</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -1222,38 +1222,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23348</v>
+        <v>15585</v>
       </c>
       <c r="E11" t="n">
         <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>8900</v>
+        <v>7055</v>
       </c>
       <c r="G11" t="n">
-        <v>38.1</v>
+        <v>45.3</v>
       </c>
       <c r="H11" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I11" t="n">
-        <v>6050</v>
+        <v>2735</v>
       </c>
       <c r="J11" t="n">
-        <v>25.9</v>
+        <v>17.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>5068</v>
+        <v>1525</v>
       </c>
       <c r="M11" t="n">
-        <v>21.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R11" t="n">
-        <v>1555</v>
+        <v>1335</v>
       </c>
       <c r="S11" t="n">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>1775</v>
+        <v>2935</v>
       </c>
       <c r="V11" t="n">
-        <v>7.6</v>
+        <v>18.8</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AA11" t="n">
-        <v>164</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1311,38 +1311,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24670</v>
+        <v>14020</v>
       </c>
       <c r="E12" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F12" t="n">
-        <v>10610</v>
+        <v>6080</v>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>43.4</v>
       </c>
       <c r="H12" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I12" t="n">
-        <v>7450</v>
+        <v>3525</v>
       </c>
       <c r="J12" t="n">
-        <v>30.2</v>
+        <v>25.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>2175</v>
+        <v>1140</v>
       </c>
       <c r="M12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U12" t="n">
-        <v>2250</v>
+        <v>3275</v>
       </c>
       <c r="V12" t="n">
-        <v>9.1</v>
+        <v>23.4</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AA12" t="n">
-        <v>171</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1400,38 +1400,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30310</v>
+        <v>31900</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F13" t="n">
-        <v>15110</v>
+        <v>13905</v>
       </c>
       <c r="G13" t="n">
-        <v>49.9</v>
+        <v>43.6</v>
       </c>
       <c r="H13" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I13" t="n">
-        <v>10305</v>
+        <v>8595</v>
       </c>
       <c r="J13" t="n">
-        <v>34</v>
+        <v>26.9</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>2305</v>
+        <v>1465</v>
       </c>
       <c r="M13" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>2025</v>
+        <v>485</v>
       </c>
       <c r="S13" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>565</v>
+        <v>7450</v>
       </c>
       <c r="V13" t="n">
-        <v>1.9</v>
+        <v>23.4</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="AA13" t="n">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -1489,65 +1489,65 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33070</v>
+        <v>36500</v>
       </c>
       <c r="E14" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
-        <v>12645</v>
+        <v>8585</v>
       </c>
       <c r="G14" t="n">
-        <v>38.2</v>
+        <v>23.5</v>
       </c>
       <c r="H14" t="n">
+        <v>55</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8140</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2960</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4715</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T14" t="n">
         <v>60</v>
       </c>
-      <c r="I14" t="n">
-        <v>7760</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7425</v>
-      </c>
-      <c r="M14" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2210</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
       <c r="U14" t="n">
-        <v>3030</v>
+        <v>12100</v>
       </c>
       <c r="V14" t="n">
-        <v>9.199999999999999</v>
+        <v>33.2</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="AA14" t="n">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
@@ -1578,38 +1578,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21480</v>
+        <v>16549</v>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" t="n">
-        <v>6325</v>
+        <v>6084</v>
       </c>
       <c r="G15" t="n">
-        <v>29.4</v>
+        <v>36.8</v>
       </c>
       <c r="H15" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
-        <v>6155</v>
+        <v>4200</v>
       </c>
       <c r="J15" t="n">
-        <v>28.7</v>
+        <v>25.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>5560</v>
+        <v>1565</v>
       </c>
       <c r="M15" t="n">
-        <v>25.9</v>
+        <v>9.5</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,22 +1621,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R15" t="n">
-        <v>1245</v>
+        <v>1770</v>
       </c>
       <c r="S15" t="n">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="U15" t="n">
-        <v>2195</v>
+        <v>2930</v>
       </c>
       <c r="V15" t="n">
-        <v>10.2</v>
+        <v>17.7</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="AA15" t="n">
-        <v>197</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26810</v>
+        <v>14390</v>
       </c>
       <c r="E16" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F16" t="n">
-        <v>11065</v>
+        <v>5970</v>
       </c>
       <c r="G16" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="H16" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>6655</v>
+        <v>2355</v>
       </c>
       <c r="J16" t="n">
-        <v>24.8</v>
+        <v>16.4</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L16" t="n">
-        <v>5680</v>
+        <v>1810</v>
       </c>
       <c r="M16" t="n">
-        <v>21.2</v>
+        <v>12.6</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>230</v>
+        <v>780</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U16" t="n">
-        <v>3180</v>
+        <v>3475</v>
       </c>
       <c r="V16" t="n">
-        <v>11.9</v>
+        <v>24.1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AA16" t="n">
-        <v>190</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -1756,38 +1756,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24395</v>
+        <v>14909</v>
       </c>
       <c r="E17" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
-        <v>9132</v>
+        <v>3974</v>
       </c>
       <c r="G17" t="n">
-        <v>37.4</v>
+        <v>26.7</v>
       </c>
       <c r="H17" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I17" t="n">
-        <v>7240</v>
+        <v>4195</v>
       </c>
       <c r="J17" t="n">
-        <v>29.7</v>
+        <v>28.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
-        <v>4743</v>
+        <v>2165</v>
       </c>
       <c r="M17" t="n">
-        <v>19.4</v>
+        <v>14.5</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1799,22 +1799,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R17" t="n">
-        <v>495</v>
+        <v>1110</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="U17" t="n">
-        <v>2785</v>
+        <v>3465</v>
       </c>
       <c r="V17" t="n">
-        <v>11.4</v>
+        <v>23.2</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AA17" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -1845,38 +1845,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25309</v>
+        <v>13812</v>
       </c>
       <c r="E18" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" t="n">
-        <v>10520</v>
+        <v>6982</v>
       </c>
       <c r="G18" t="n">
-        <v>41.6</v>
+        <v>50.6</v>
       </c>
       <c r="H18" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>5640</v>
+        <v>2500</v>
       </c>
       <c r="J18" t="n">
-        <v>22.3</v>
+        <v>18.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L18" t="n">
-        <v>6159</v>
+        <v>1870</v>
       </c>
       <c r="M18" t="n">
-        <v>24.3</v>
+        <v>13.5</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>1615</v>
+        <v>880</v>
       </c>
       <c r="S18" t="n">
         <v>6.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="U18" t="n">
-        <v>1375</v>
+        <v>1580</v>
       </c>
       <c r="V18" t="n">
-        <v>5.4</v>
+        <v>11.4</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AA18" t="n">
-        <v>172</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -1934,38 +1934,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19229</v>
+        <v>14245</v>
       </c>
       <c r="E19" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F19" t="n">
-        <v>7190</v>
+        <v>5615</v>
       </c>
       <c r="G19" t="n">
-        <v>37.4</v>
+        <v>39.4</v>
       </c>
       <c r="H19" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I19" t="n">
-        <v>4950</v>
+        <v>3100</v>
       </c>
       <c r="J19" t="n">
-        <v>25.7</v>
+        <v>21.8</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>4439</v>
+        <v>1665</v>
       </c>
       <c r="M19" t="n">
-        <v>23.1</v>
+        <v>11.7</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>685</v>
+        <v>465</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="U19" t="n">
-        <v>1965</v>
+        <v>3400</v>
       </c>
       <c r="V19" t="n">
-        <v>10.2</v>
+        <v>23.9</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AA19" t="n">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -2023,38 +2023,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21235</v>
+        <v>24919</v>
       </c>
       <c r="E20" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>8710</v>
+        <v>9215</v>
       </c>
       <c r="G20" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>5680</v>
+        <v>4739</v>
       </c>
       <c r="J20" t="n">
-        <v>26.7</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L20" t="n">
-        <v>3125</v>
+        <v>2415</v>
       </c>
       <c r="M20" t="n">
-        <v>14.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R20" t="n">
-        <v>1235</v>
+        <v>2505</v>
       </c>
       <c r="S20" t="n">
-        <v>5.8</v>
+        <v>10.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="U20" t="n">
-        <v>2485</v>
+        <v>6045</v>
       </c>
       <c r="V20" t="n">
-        <v>11.7</v>
+        <v>24.3</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="AA20" t="n">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
@@ -2112,38 +2112,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30060</v>
+        <v>29070</v>
       </c>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F21" t="n">
-        <v>13980</v>
+        <v>10855</v>
       </c>
       <c r="G21" t="n">
-        <v>46.5</v>
+        <v>37.3</v>
       </c>
       <c r="H21" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>7580</v>
+        <v>5685</v>
       </c>
       <c r="J21" t="n">
-        <v>25.2</v>
+        <v>19.6</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L21" t="n">
-        <v>5190</v>
+        <v>2870</v>
       </c>
       <c r="M21" t="n">
-        <v>17.3</v>
+        <v>9.9</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="U21" t="n">
-        <v>2095</v>
+        <v>9660</v>
       </c>
       <c r="V21" t="n">
-        <v>7</v>
+        <v>33.2</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="AA21" t="n">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -2201,38 +2201,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>24930</v>
+        <v>18024</v>
       </c>
       <c r="E22" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F22" t="n">
-        <v>10310</v>
+        <v>7338</v>
       </c>
       <c r="G22" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="H22" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I22" t="n">
-        <v>7705</v>
+        <v>4701</v>
       </c>
       <c r="J22" t="n">
-        <v>30.9</v>
+        <v>26.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L22" t="n">
-        <v>3585</v>
+        <v>1560</v>
       </c>
       <c r="M22" t="n">
-        <v>14.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>975</v>
+        <v>260</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="U22" t="n">
-        <v>2355</v>
+        <v>4165</v>
       </c>
       <c r="V22" t="n">
-        <v>9.4</v>
+        <v>23.1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AA22" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
@@ -2290,38 +2290,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24940</v>
+        <v>17005</v>
       </c>
       <c r="E23" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F23" t="n">
-        <v>10225</v>
+        <v>7125</v>
       </c>
       <c r="G23" t="n">
-        <v>41</v>
+        <v>41.9</v>
       </c>
       <c r="H23" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I23" t="n">
-        <v>7410</v>
+        <v>4175</v>
       </c>
       <c r="J23" t="n">
-        <v>29.7</v>
+        <v>24.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
-        <v>3470</v>
+        <v>2400</v>
       </c>
       <c r="M23" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1100</v>
+        <v>415</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U23" t="n">
-        <v>2735</v>
+        <v>2890</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="AA23" t="n">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
@@ -2379,38 +2379,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23970</v>
+        <v>19572</v>
       </c>
       <c r="E24" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F24" t="n">
-        <v>8340</v>
+        <v>7367</v>
       </c>
       <c r="G24" t="n">
-        <v>34.8</v>
+        <v>37.6</v>
       </c>
       <c r="H24" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I24" t="n">
-        <v>6660</v>
+        <v>5155</v>
       </c>
       <c r="J24" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L24" t="n">
-        <v>5625</v>
+        <v>2450</v>
       </c>
       <c r="M24" t="n">
-        <v>23.5</v>
+        <v>12.5</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>1720</v>
+        <v>745</v>
       </c>
       <c r="S24" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U24" t="n">
-        <v>1625</v>
+        <v>3855</v>
       </c>
       <c r="V24" t="n">
-        <v>6.8</v>
+        <v>19.7</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AA24" t="n">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
@@ -2468,38 +2468,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28640</v>
+        <v>29390</v>
       </c>
       <c r="E25" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F25" t="n">
-        <v>12995</v>
+        <v>11840</v>
       </c>
       <c r="G25" t="n">
-        <v>45.4</v>
+        <v>40.3</v>
       </c>
       <c r="H25" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I25" t="n">
-        <v>8000</v>
+        <v>6810</v>
       </c>
       <c r="J25" t="n">
-        <v>27.9</v>
+        <v>23.2</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>3775</v>
+        <v>2370</v>
       </c>
       <c r="M25" t="n">
-        <v>13.2</v>
+        <v>8.1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="R25" t="n">
-        <v>1740</v>
+        <v>6650</v>
       </c>
       <c r="S25" t="n">
-        <v>6.1</v>
+        <v>22.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U25" t="n">
-        <v>2130</v>
+        <v>1720</v>
       </c>
       <c r="V25" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,57 +2538,57 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="AA25" t="n">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26585</v>
+        <v>32370</v>
       </c>
       <c r="E26" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F26" t="n">
-        <v>11315</v>
+        <v>15735</v>
       </c>
       <c r="G26" t="n">
-        <v>42.6</v>
+        <v>48.6</v>
       </c>
       <c r="H26" t="n">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="I26" t="n">
-        <v>8700</v>
+        <v>14085</v>
       </c>
       <c r="J26" t="n">
-        <v>32.7</v>
+        <v>43.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>1190</v>
+        <v>385</v>
       </c>
       <c r="M26" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4505</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
-        <v>875</v>
+        <v>2165</v>
       </c>
       <c r="V26" t="n">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,57 +2627,57 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="AA26" t="n">
-        <v>229</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>28181</v>
+        <v>37330</v>
       </c>
       <c r="E27" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" t="n">
-        <v>11285</v>
+        <v>12600</v>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>33.8</v>
       </c>
       <c r="H27" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I27" t="n">
-        <v>9375</v>
+        <v>13670</v>
       </c>
       <c r="J27" t="n">
-        <v>33.3</v>
+        <v>36.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4476</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R27" t="n">
-        <v>1325</v>
+        <v>3055</v>
       </c>
       <c r="S27" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="U27" t="n">
-        <v>1720</v>
+        <v>8005</v>
       </c>
       <c r="V27" t="n">
-        <v>6.1</v>
+        <v>21.4</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,57 +2716,57 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="AA27" t="n">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28790</v>
+        <v>31956</v>
       </c>
       <c r="E28" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F28" t="n">
-        <v>9615</v>
+        <v>10671</v>
       </c>
       <c r="G28" t="n">
         <v>33.4</v>
       </c>
       <c r="H28" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I28" t="n">
-        <v>9790</v>
+        <v>10685</v>
       </c>
       <c r="J28" t="n">
-        <v>34</v>
+        <v>33.4</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>6110</v>
+        <v>1075</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>3.4</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R28" t="n">
-        <v>2500</v>
+        <v>4025</v>
       </c>
       <c r="S28" t="n">
-        <v>8.699999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U28" t="n">
-        <v>775</v>
+        <v>5500</v>
       </c>
       <c r="V28" t="n">
-        <v>2.7</v>
+        <v>17.2</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,57 +2805,57 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="AA28" t="n">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25705</v>
+        <v>18410</v>
       </c>
       <c r="E29" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F29" t="n">
-        <v>8325</v>
+        <v>6085</v>
       </c>
       <c r="G29" t="n">
-        <v>32.4</v>
+        <v>33.1</v>
       </c>
       <c r="H29" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I29" t="n">
-        <v>6075</v>
+        <v>4400</v>
       </c>
       <c r="J29" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L29" t="n">
-        <v>6260</v>
+        <v>1845</v>
       </c>
       <c r="M29" t="n">
-        <v>24.4</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R29" t="n">
-        <v>3955</v>
+        <v>1890</v>
       </c>
       <c r="S29" t="n">
-        <v>15.4</v>
+        <v>10.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U29" t="n">
-        <v>1090</v>
+        <v>4190</v>
       </c>
       <c r="V29" t="n">
-        <v>4.2</v>
+        <v>22.8</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,91 +2894,180 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="AA29" t="n">
-        <v>212</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-01-31</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>拉亞中北</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>17710</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6505</v>
+      </c>
+      <c r="G30" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>36</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3720</v>
+      </c>
+      <c r="J30" t="n">
+        <v>21</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1780</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1450</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T30" t="n">
+        <v>21</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4255</v>
+      </c>
+      <c r="V30" t="n">
+        <v>24</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>142</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>718927</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1908</v>
-      </c>
-      <c r="F30" t="n">
-        <v>294051</v>
-      </c>
-      <c r="G30" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1774</v>
-      </c>
-      <c r="I30" t="n">
-        <v>195230</v>
-      </c>
-      <c r="J30" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>55</v>
-      </c>
-      <c r="L30" t="n">
-        <v>123206</v>
-      </c>
-      <c r="M30" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>27</v>
-      </c>
-      <c r="R30" t="n">
-        <v>49590</v>
-      </c>
-      <c r="S30" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="T30" t="n">
-        <v>26</v>
-      </c>
-      <c r="U30" t="n">
-        <v>56850</v>
-      </c>
-      <c r="V30" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>3790</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>190</v>
+      <c r="D31" t="n">
+        <v>615447</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F31" t="n">
+        <v>232816</v>
+      </c>
+      <c r="G31" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1247</v>
+      </c>
+      <c r="I31" t="n">
+        <v>156430</v>
+      </c>
+      <c r="J31" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>393</v>
+      </c>
+      <c r="L31" t="n">
+        <v>49096</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>207</v>
+      </c>
+      <c r="R31" t="n">
+        <v>43625</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>709</v>
+      </c>
+      <c r="U31" t="n">
+        <v>133480</v>
+      </c>
+      <c r="V31" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>4406</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/MEDIA/3013_拉亞直營營業額(2020-01-01~2020-01-31).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-01-01~2020-01-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,38 +510,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30314</v>
+        <v>35980</v>
       </c>
       <c r="E3" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>12309</v>
+        <v>13990</v>
       </c>
       <c r="G3" t="n">
-        <v>40.6</v>
+        <v>38.9</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>5435</v>
+        <v>9085</v>
       </c>
       <c r="J3" t="n">
-        <v>17.9</v>
+        <v>25.3</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1495</v>
+        <v>8975</v>
       </c>
       <c r="M3" t="n">
-        <v>4.9</v>
+        <v>24.9</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>2315</v>
+        <v>3930</v>
       </c>
       <c r="S3" t="n">
-        <v>7.6</v>
+        <v>10.9</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8760</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="AA3" t="n">
-        <v>172</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
@@ -599,38 +599,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13113</v>
+        <v>25715</v>
       </c>
       <c r="E4" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F4" t="n">
-        <v>5378</v>
+        <v>9292</v>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>36.1</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>3255</v>
+        <v>6045</v>
       </c>
       <c r="J4" t="n">
-        <v>24.8</v>
+        <v>23.5</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>1630</v>
+        <v>4878</v>
       </c>
       <c r="M4" t="n">
-        <v>12.4</v>
+        <v>19</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>535</v>
+        <v>2480</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>9.6</v>
       </c>
       <c r="T4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>2315</v>
+        <v>3020</v>
       </c>
       <c r="V4" t="n">
-        <v>17.7</v>
+        <v>11.7</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="AA4" t="n">
-        <v>118</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17007</v>
+        <v>22145</v>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>5819</v>
+        <v>10135</v>
       </c>
       <c r="G5" t="n">
-        <v>34.2</v>
+        <v>45.8</v>
       </c>
       <c r="H5" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I5" t="n">
-        <v>4033</v>
+        <v>5655</v>
       </c>
       <c r="J5" t="n">
-        <v>23.7</v>
+        <v>25.5</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>2250</v>
+        <v>2875</v>
       </c>
       <c r="M5" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1150</v>
+        <v>1585</v>
       </c>
       <c r="S5" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="T5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>3755</v>
+        <v>1895</v>
       </c>
       <c r="V5" t="n">
-        <v>22.1</v>
+        <v>8.6</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="AA5" t="n">
-        <v>114</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -777,38 +777,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24125</v>
+        <v>33180</v>
       </c>
       <c r="E6" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F6" t="n">
-        <v>10560</v>
+        <v>13390</v>
       </c>
       <c r="G6" t="n">
-        <v>43.8</v>
+        <v>40.4</v>
       </c>
       <c r="H6" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I6" t="n">
-        <v>5575</v>
+        <v>9550</v>
       </c>
       <c r="J6" t="n">
-        <v>23.1</v>
+        <v>28.8</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1865</v>
+        <v>3100</v>
       </c>
       <c r="M6" t="n">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1020</v>
+        <v>3745</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>11.3</v>
       </c>
       <c r="T6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>5105</v>
+        <v>3395</v>
       </c>
       <c r="V6" t="n">
-        <v>21.2</v>
+        <v>10.2</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AA6" t="n">
-        <v>144</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -866,38 +866,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33259</v>
+        <v>35230</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>11769</v>
+        <v>18275</v>
       </c>
       <c r="G7" t="n">
-        <v>35.4</v>
+        <v>51.9</v>
       </c>
       <c r="H7" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I7" t="n">
-        <v>7830</v>
+        <v>8490</v>
       </c>
       <c r="J7" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>1775</v>
+        <v>3825</v>
       </c>
       <c r="M7" t="n">
-        <v>5.3</v>
+        <v>10.9</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1895</v>
+        <v>2425</v>
       </c>
       <c r="S7" t="n">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="T7" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>9990</v>
+        <v>2215</v>
       </c>
       <c r="V7" t="n">
-        <v>30</v>
+        <v>6.3</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="AA7" t="n">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17516</v>
+        <v>25765</v>
       </c>
       <c r="E8" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" t="n">
-        <v>7850</v>
+        <v>11362</v>
       </c>
       <c r="G8" t="n">
-        <v>44.8</v>
+        <v>44.1</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I8" t="n">
-        <v>3220</v>
+        <v>6850</v>
       </c>
       <c r="J8" t="n">
-        <v>18.4</v>
+        <v>26.6</v>
       </c>
       <c r="K8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2196</v>
+        <v>3988</v>
       </c>
       <c r="M8" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1295</v>
+        <v>960</v>
       </c>
       <c r="S8" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>2955</v>
+        <v>2605</v>
       </c>
       <c r="V8" t="n">
-        <v>16.9</v>
+        <v>10.1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AA8" t="n">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1044,38 +1044,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15180</v>
+        <v>23400</v>
       </c>
       <c r="E9" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F9" t="n">
-        <v>4740</v>
+        <v>9850</v>
       </c>
       <c r="G9" t="n">
-        <v>31.2</v>
+        <v>42.1</v>
       </c>
       <c r="H9" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I9" t="n">
-        <v>4345</v>
+        <v>5150</v>
       </c>
       <c r="J9" t="n">
-        <v>28.6</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1540</v>
+        <v>5085</v>
       </c>
       <c r="M9" t="n">
-        <v>10.1</v>
+        <v>21.7</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>960</v>
+        <v>555</v>
       </c>
       <c r="S9" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>3595</v>
+        <v>2760</v>
       </c>
       <c r="V9" t="n">
-        <v>23.7</v>
+        <v>11.8</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="AA9" t="n">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -1133,38 +1133,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17267</v>
+        <v>25675</v>
       </c>
       <c r="E10" t="n">
+        <v>82</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11075</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H10" t="n">
         <v>59</v>
       </c>
-      <c r="F10" t="n">
-        <v>4805</v>
-      </c>
-      <c r="G10" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>46</v>
-      </c>
       <c r="I10" t="n">
-        <v>5567</v>
+        <v>5130</v>
       </c>
       <c r="J10" t="n">
-        <v>32.2</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>1030</v>
+        <v>4120</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1920</v>
+        <v>1395</v>
       </c>
       <c r="S10" t="n">
-        <v>11.1</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>3945</v>
+        <v>3955</v>
       </c>
       <c r="V10" t="n">
-        <v>22.8</v>
+        <v>15.4</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AA10" t="n">
-        <v>117</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -1222,38 +1222,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15585</v>
+        <v>23178</v>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" t="n">
-        <v>7055</v>
+        <v>8790</v>
       </c>
       <c r="G11" t="n">
-        <v>45.3</v>
+        <v>37.9</v>
       </c>
       <c r="H11" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I11" t="n">
-        <v>2735</v>
+        <v>5990</v>
       </c>
       <c r="J11" t="n">
-        <v>17.5</v>
+        <v>25.8</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1525</v>
+        <v>5068</v>
       </c>
       <c r="M11" t="n">
-        <v>9.800000000000001</v>
+        <v>21.9</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1335</v>
+        <v>1555</v>
       </c>
       <c r="S11" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="T11" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>2935</v>
+        <v>1775</v>
       </c>
       <c r="V11" t="n">
-        <v>18.8</v>
+        <v>7.7</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AA11" t="n">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -1311,38 +1311,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14020</v>
+        <v>24670</v>
       </c>
       <c r="E12" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F12" t="n">
-        <v>6080</v>
+        <v>10610</v>
       </c>
       <c r="G12" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I12" t="n">
-        <v>3525</v>
+        <v>7450</v>
       </c>
       <c r="J12" t="n">
-        <v>25.1</v>
+        <v>30.2</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1140</v>
+        <v>2175</v>
       </c>
       <c r="M12" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="T12" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>3275</v>
+        <v>2250</v>
       </c>
       <c r="V12" t="n">
-        <v>23.4</v>
+        <v>9.1</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
@@ -1400,38 +1400,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31900</v>
+        <v>30140</v>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F13" t="n">
-        <v>13905</v>
+        <v>15110</v>
       </c>
       <c r="G13" t="n">
-        <v>43.6</v>
+        <v>50.1</v>
       </c>
       <c r="H13" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I13" t="n">
-        <v>8595</v>
+        <v>10135</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9</v>
+        <v>33.6</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1465</v>
+        <v>2305</v>
       </c>
       <c r="M13" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>485</v>
+        <v>2025</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>7450</v>
+        <v>565</v>
       </c>
       <c r="V13" t="n">
-        <v>23.4</v>
+        <v>1.9</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="n">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -1489,38 +1489,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36500</v>
+        <v>25790</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>8585</v>
+        <v>12550</v>
       </c>
       <c r="G14" t="n">
-        <v>23.5</v>
+        <v>48.7</v>
       </c>
       <c r="H14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I14" t="n">
-        <v>8140</v>
+        <v>7760</v>
       </c>
       <c r="J14" t="n">
-        <v>22.3</v>
+        <v>30.1</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2960</v>
+        <v>240</v>
       </c>
       <c r="M14" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>4715</v>
+        <v>2210</v>
       </c>
       <c r="S14" t="n">
-        <v>12.9</v>
+        <v>8.6</v>
       </c>
       <c r="T14" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>12100</v>
+        <v>3030</v>
       </c>
       <c r="V14" t="n">
-        <v>33.2</v>
+        <v>11.7</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="AA14" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -1578,38 +1578,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16549</v>
+        <v>21150</v>
       </c>
       <c r="E15" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" t="n">
-        <v>6084</v>
+        <v>6140</v>
       </c>
       <c r="G15" t="n">
-        <v>36.8</v>
+        <v>29</v>
       </c>
       <c r="H15" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>4200</v>
+        <v>6010</v>
       </c>
       <c r="J15" t="n">
-        <v>25.4</v>
+        <v>28.4</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>1565</v>
+        <v>5560</v>
       </c>
       <c r="M15" t="n">
-        <v>9.5</v>
+        <v>26.3</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,22 +1621,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1770</v>
+        <v>1245</v>
       </c>
       <c r="S15" t="n">
-        <v>10.7</v>
+        <v>5.9</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>2930</v>
+        <v>2195</v>
       </c>
       <c r="V15" t="n">
-        <v>17.7</v>
+        <v>10.4</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="AA15" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14390</v>
+        <v>26540</v>
       </c>
       <c r="E16" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F16" t="n">
-        <v>5970</v>
+        <v>11065</v>
       </c>
       <c r="G16" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I16" t="n">
-        <v>2355</v>
+        <v>6385</v>
       </c>
       <c r="J16" t="n">
-        <v>16.4</v>
+        <v>24.1</v>
       </c>
       <c r="K16" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1810</v>
+        <v>5680</v>
       </c>
       <c r="M16" t="n">
-        <v>12.6</v>
+        <v>21.4</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>780</v>
+        <v>230</v>
       </c>
       <c r="S16" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>3475</v>
+        <v>3180</v>
       </c>
       <c r="V16" t="n">
-        <v>24.1</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="n">
-        <v>112</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
@@ -1756,38 +1756,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14909</v>
+        <v>24395</v>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F17" t="n">
-        <v>3974</v>
+        <v>9132</v>
       </c>
       <c r="G17" t="n">
-        <v>26.7</v>
+        <v>37.4</v>
       </c>
       <c r="H17" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I17" t="n">
-        <v>4195</v>
+        <v>7240</v>
       </c>
       <c r="J17" t="n">
-        <v>28.1</v>
+        <v>29.7</v>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>2165</v>
+        <v>4743</v>
       </c>
       <c r="M17" t="n">
-        <v>14.5</v>
+        <v>19.4</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1799,22 +1799,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>1110</v>
+        <v>495</v>
       </c>
       <c r="S17" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>3465</v>
+        <v>2785</v>
       </c>
       <c r="V17" t="n">
-        <v>23.2</v>
+        <v>11.4</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AA17" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -1845,38 +1845,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13812</v>
+        <v>25309</v>
       </c>
       <c r="E18" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18" t="n">
-        <v>6982</v>
+        <v>10520</v>
       </c>
       <c r="G18" t="n">
-        <v>50.6</v>
+        <v>41.6</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I18" t="n">
-        <v>2500</v>
+        <v>5640</v>
       </c>
       <c r="J18" t="n">
-        <v>18.1</v>
+        <v>22.3</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1870</v>
+        <v>6159</v>
       </c>
       <c r="M18" t="n">
-        <v>13.5</v>
+        <v>24.3</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>880</v>
+        <v>1615</v>
       </c>
       <c r="S18" t="n">
         <v>6.4</v>
       </c>
       <c r="T18" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1580</v>
+        <v>1375</v>
       </c>
       <c r="V18" t="n">
-        <v>11.4</v>
+        <v>5.4</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AA18" t="n">
-        <v>102</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -1934,38 +1934,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14245</v>
+        <v>19139</v>
       </c>
       <c r="E19" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>5615</v>
+        <v>7100</v>
       </c>
       <c r="G19" t="n">
-        <v>39.4</v>
+        <v>37.1</v>
       </c>
       <c r="H19" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I19" t="n">
-        <v>3100</v>
+        <v>4950</v>
       </c>
       <c r="J19" t="n">
-        <v>21.8</v>
+        <v>25.9</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>1665</v>
+        <v>4439</v>
       </c>
       <c r="M19" t="n">
-        <v>11.7</v>
+        <v>23.2</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>465</v>
+        <v>685</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>3400</v>
+        <v>1965</v>
       </c>
       <c r="V19" t="n">
-        <v>23.9</v>
+        <v>10.3</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AA19" t="n">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -2023,38 +2023,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24919</v>
+        <v>21155</v>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F20" t="n">
-        <v>9215</v>
+        <v>8710</v>
       </c>
       <c r="G20" t="n">
-        <v>37</v>
+        <v>41.2</v>
       </c>
       <c r="H20" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>4739</v>
+        <v>5600</v>
       </c>
       <c r="J20" t="n">
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="K20" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>2415</v>
+        <v>3125</v>
       </c>
       <c r="M20" t="n">
-        <v>9.699999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>2505</v>
+        <v>1235</v>
       </c>
       <c r="S20" t="n">
-        <v>10.1</v>
+        <v>5.8</v>
       </c>
       <c r="T20" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>6045</v>
+        <v>2485</v>
       </c>
       <c r="V20" t="n">
-        <v>24.3</v>
+        <v>11.7</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="AA20" t="n">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -2112,38 +2112,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29070</v>
+        <v>29895</v>
       </c>
       <c r="E21" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F21" t="n">
-        <v>10855</v>
+        <v>13815</v>
       </c>
       <c r="G21" t="n">
-        <v>37.3</v>
+        <v>46.2</v>
       </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I21" t="n">
-        <v>5685</v>
+        <v>7580</v>
       </c>
       <c r="J21" t="n">
-        <v>19.6</v>
+        <v>25.4</v>
       </c>
       <c r="K21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>2870</v>
+        <v>5190</v>
       </c>
       <c r="M21" t="n">
-        <v>9.9</v>
+        <v>17.4</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>9660</v>
+        <v>2095</v>
       </c>
       <c r="V21" t="n">
-        <v>33.2</v>
+        <v>7</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="AA21" t="n">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -2201,38 +2201,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18024</v>
+        <v>24650</v>
       </c>
       <c r="E22" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F22" t="n">
-        <v>7338</v>
+        <v>10310</v>
       </c>
       <c r="G22" t="n">
-        <v>40.7</v>
+        <v>41.8</v>
       </c>
       <c r="H22" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I22" t="n">
-        <v>4701</v>
+        <v>7425</v>
       </c>
       <c r="J22" t="n">
-        <v>26.1</v>
+        <v>30.1</v>
       </c>
       <c r="K22" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>1560</v>
+        <v>3585</v>
       </c>
       <c r="M22" t="n">
-        <v>8.699999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>260</v>
+        <v>975</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>4165</v>
+        <v>2355</v>
       </c>
       <c r="V22" t="n">
-        <v>23.1</v>
+        <v>9.6</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AA22" t="n">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -2290,38 +2290,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17005</v>
+        <v>24845</v>
       </c>
       <c r="E23" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F23" t="n">
-        <v>7125</v>
+        <v>10130</v>
       </c>
       <c r="G23" t="n">
-        <v>41.9</v>
+        <v>40.8</v>
       </c>
       <c r="H23" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I23" t="n">
-        <v>4175</v>
+        <v>7410</v>
       </c>
       <c r="J23" t="n">
-        <v>24.6</v>
+        <v>29.8</v>
       </c>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>2400</v>
+        <v>3470</v>
       </c>
       <c r="M23" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>415</v>
+        <v>1100</v>
       </c>
       <c r="S23" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>2890</v>
+        <v>2735</v>
       </c>
       <c r="V23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="AA23" t="n">
-        <v>121</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
@@ -2379,38 +2379,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19572</v>
+        <v>23970</v>
       </c>
       <c r="E24" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F24" t="n">
-        <v>7367</v>
+        <v>8340</v>
       </c>
       <c r="G24" t="n">
-        <v>37.6</v>
+        <v>34.8</v>
       </c>
       <c r="H24" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I24" t="n">
-        <v>5155</v>
+        <v>6660</v>
       </c>
       <c r="J24" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="K24" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>2450</v>
+        <v>5625</v>
       </c>
       <c r="M24" t="n">
-        <v>12.5</v>
+        <v>23.5</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>745</v>
+        <v>1720</v>
       </c>
       <c r="S24" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="T24" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>3855</v>
+        <v>1625</v>
       </c>
       <c r="V24" t="n">
-        <v>19.7</v>
+        <v>6.8</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AA24" t="n">
-        <v>126</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
@@ -2468,38 +2468,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29390</v>
+        <v>24610</v>
       </c>
       <c r="E25" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="n">
-        <v>11840</v>
+        <v>12930</v>
       </c>
       <c r="G25" t="n">
-        <v>40.3</v>
+        <v>52.5</v>
       </c>
       <c r="H25" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I25" t="n">
-        <v>6810</v>
+        <v>7810</v>
       </c>
       <c r="J25" t="n">
-        <v>23.2</v>
+        <v>31.7</v>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>6650</v>
+        <v>1740</v>
       </c>
       <c r="S25" t="n">
-        <v>22.6</v>
+        <v>7.1</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>1720</v>
+        <v>2130</v>
       </c>
       <c r="V25" t="n">
-        <v>5.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,57 +2538,57 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="AA25" t="n">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32370</v>
+        <v>26585</v>
       </c>
       <c r="E26" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F26" t="n">
-        <v>15735</v>
+        <v>11315</v>
       </c>
       <c r="G26" t="n">
-        <v>48.6</v>
+        <v>42.6</v>
       </c>
       <c r="H26" t="n">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="I26" t="n">
-        <v>14085</v>
+        <v>8700</v>
       </c>
       <c r="J26" t="n">
-        <v>43.5</v>
+        <v>32.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>385</v>
+        <v>1190</v>
       </c>
       <c r="M26" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4505</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2165</v>
+        <v>875</v>
       </c>
       <c r="V26" t="n">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,57 +2627,57 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="AA26" t="n">
-        <v>153</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37330</v>
+        <v>28106</v>
       </c>
       <c r="E27" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" t="n">
-        <v>12600</v>
+        <v>11210</v>
       </c>
       <c r="G27" t="n">
-        <v>33.8</v>
+        <v>39.9</v>
       </c>
       <c r="H27" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I27" t="n">
-        <v>13670</v>
+        <v>9375</v>
       </c>
       <c r="J27" t="n">
-        <v>36.6</v>
+        <v>33.4</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4476</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>3055</v>
+        <v>1325</v>
       </c>
       <c r="S27" t="n">
-        <v>8.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="T27" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>8005</v>
+        <v>1720</v>
       </c>
       <c r="V27" t="n">
-        <v>21.4</v>
+        <v>6.1</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,57 +2716,57 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="AA27" t="n">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31956</v>
+        <v>28690</v>
       </c>
       <c r="E28" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F28" t="n">
-        <v>10671</v>
+        <v>9515</v>
       </c>
       <c r="G28" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="H28" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I28" t="n">
-        <v>10685</v>
+        <v>9790</v>
       </c>
       <c r="J28" t="n">
-        <v>33.4</v>
+        <v>34.1</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1075</v>
+        <v>6110</v>
       </c>
       <c r="M28" t="n">
-        <v>3.4</v>
+        <v>21.3</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>4025</v>
+        <v>2500</v>
       </c>
       <c r="S28" t="n">
-        <v>12.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T28" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>5500</v>
+        <v>775</v>
       </c>
       <c r="V28" t="n">
-        <v>17.2</v>
+        <v>2.7</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,57 +2805,57 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="AA28" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18410</v>
+        <v>25705</v>
       </c>
       <c r="E29" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F29" t="n">
-        <v>6085</v>
+        <v>8325</v>
       </c>
       <c r="G29" t="n">
-        <v>33.1</v>
+        <v>32.4</v>
       </c>
       <c r="H29" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I29" t="n">
-        <v>4400</v>
+        <v>6075</v>
       </c>
       <c r="J29" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="K29" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>1845</v>
+        <v>6260</v>
       </c>
       <c r="M29" t="n">
-        <v>10</v>
+        <v>24.4</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>1890</v>
+        <v>3955</v>
       </c>
       <c r="S29" t="n">
-        <v>10.3</v>
+        <v>15.4</v>
       </c>
       <c r="T29" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>4190</v>
+        <v>1090</v>
       </c>
       <c r="V29" t="n">
-        <v>22.8</v>
+        <v>4.2</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,57 +2894,49 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="AA29" t="n">
-        <v>124</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2020-01-31</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>五</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞中北</t>
+          <t>小計</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17710</v>
+        <v>705612</v>
       </c>
       <c r="E30" t="n">
-        <v>63</v>
+        <v>1896</v>
       </c>
       <c r="F30" t="n">
-        <v>6505</v>
+        <v>292986</v>
       </c>
       <c r="G30" t="n">
-        <v>36.7</v>
+        <v>41.5</v>
       </c>
       <c r="H30" t="n">
-        <v>36</v>
+        <v>1764</v>
       </c>
       <c r="I30" t="n">
-        <v>3720</v>
+        <v>193940</v>
       </c>
       <c r="J30" t="n">
-        <v>21</v>
+        <v>27.5</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L30" t="n">
-        <v>1780</v>
+        <v>112246</v>
       </c>
       <c r="M30" t="n">
-        <v>10.1</v>
+        <v>15.9</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2956,22 +2948,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="R30" t="n">
-        <v>1450</v>
+        <v>49590</v>
       </c>
       <c r="S30" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="T30" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U30" t="n">
-        <v>4255</v>
+        <v>56850</v>
       </c>
       <c r="V30" t="n">
-        <v>24</v>
+        <v>8.1</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,91 +2975,10 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>142</v>
+        <v>3766</v>
       </c>
       <c r="AA30" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>小計</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>615447</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1850</v>
-      </c>
-      <c r="F31" t="n">
-        <v>232816</v>
-      </c>
-      <c r="G31" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1247</v>
-      </c>
-      <c r="I31" t="n">
-        <v>156430</v>
-      </c>
-      <c r="J31" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>393</v>
-      </c>
-      <c r="L31" t="n">
-        <v>49096</v>
-      </c>
-      <c r="M31" t="n">
-        <v>8</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>207</v>
-      </c>
-      <c r="R31" t="n">
-        <v>43625</v>
-      </c>
-      <c r="S31" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>709</v>
-      </c>
-      <c r="U31" t="n">
-        <v>133480</v>
-      </c>
-      <c r="V31" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>4406</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>140</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
